--- a/Test Results with Graphs.xlsx
+++ b/Test Results with Graphs.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="453" documentId="8_{14D5C461-4434-D44E-8185-E36E36830219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0F05E31-15F4-E64D-BD4B-3F9E0B9B601D}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-8440" windowWidth="38400" windowHeight="23500" activeTab="9" xr2:uid="{53E0ACCE-A16B-6E41-BD3D-EFD092F83BF0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="8" xr2:uid="{53E0ACCE-A16B-6E41-BD3D-EFD092F83BF0}"/>
   </bookViews>
   <sheets>
     <sheet name="EFI Unprocessed" sheetId="1" r:id="rId1"/>
@@ -1850,6 +1850,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3811-9F4F-BAF1-7C0DAC9BC921}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2009,6 +2014,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-3811-9F4F-BAF1-7C0DAC9BC921}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2170,6 +2180,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-3811-9F4F-BAF1-7C0DAC9BC921}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2331,6 +2346,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-3811-9F4F-BAF1-7C0DAC9BC921}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2822,6 +2842,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-8397-A441-AED8-335A18217D83}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2838,6 +2863,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-8397-A441-AED8-335A18217D83}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2976,6 +3006,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-8397-A441-AED8-335A18217D83}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2993,6 +3028,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-8397-A441-AED8-335A18217D83}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3132,6 +3172,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-8397-A441-AED8-335A18217D83}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3149,6 +3194,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-8397-A441-AED8-335A18217D83}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3288,6 +3338,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-8397-A441-AED8-335A18217D83}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3304,6 +3359,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-8397-A441-AED8-335A18217D83}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3778,6 +3838,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3565-D744-80BA-0F8ED2C97231}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3990,6 +4055,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-3565-D744-80BA-0F8ED2C97231}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -15865,7 +15935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{158C5FEF-73B9-4A4E-AE95-1E8163B01CA6}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
@@ -16801,7 +16871,7 @@
         <v>0.93964999999999987</v>
       </c>
       <c r="E2" s="1">
-        <f>AVERAGE(B2:D2)</f>
+        <f t="shared" ref="E2:E9" si="0">AVERAGE(B2:D2)</f>
         <v>0.84826666666666661</v>
       </c>
     </row>
@@ -16819,7 +16889,7 @@
         <v>0.87759999999999994</v>
       </c>
       <c r="E3" s="1">
-        <f>AVERAGE(B3:D3)</f>
+        <f t="shared" si="0"/>
         <v>0.82616666666666683</v>
       </c>
     </row>
@@ -16837,7 +16907,7 @@
         <v>0.87925000000000009</v>
       </c>
       <c r="E4" s="1">
-        <f>AVERAGE(B4:D4)</f>
+        <f t="shared" si="0"/>
         <v>0.82886666666666675</v>
       </c>
     </row>
@@ -16855,7 +16925,7 @@
         <v>0.93369999999999997</v>
       </c>
       <c r="E5" s="1">
-        <f>AVERAGE(B5:D5)</f>
+        <f t="shared" si="0"/>
         <v>0.80156666666666665</v>
       </c>
     </row>
@@ -16873,7 +16943,7 @@
         <v>0.95090000000000008</v>
       </c>
       <c r="E6" s="1">
-        <f>AVERAGE(B6:D6)</f>
+        <f t="shared" si="0"/>
         <v>0.8481833333333334</v>
       </c>
     </row>
@@ -16891,7 +16961,7 @@
         <v>0.94294999999999995</v>
       </c>
       <c r="E7" s="1">
-        <f>AVERAGE(B7:D7)</f>
+        <f t="shared" si="0"/>
         <v>0.8577499999999999</v>
       </c>
     </row>
@@ -16909,7 +16979,7 @@
         <v>0.91425000000000001</v>
       </c>
       <c r="E8" s="1">
-        <f>AVERAGE(B8:D8)</f>
+        <f t="shared" si="0"/>
         <v>0.83510000000000006</v>
       </c>
     </row>
@@ -16927,7 +16997,7 @@
         <v>0.95720000000000005</v>
       </c>
       <c r="E9" s="1">
-        <f>AVERAGE(B9:D9)</f>
+        <f t="shared" si="0"/>
         <v>0.86726666666666663</v>
       </c>
     </row>
@@ -16944,8 +17014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A8E211-60EC-4412-9CB5-6C0D1D3AA7E4}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16985,7 +17055,7 @@
         <v>0.61610000000000009</v>
       </c>
       <c r="E2" s="1">
-        <f>AVERAGE(B2:D2)</f>
+        <f t="shared" ref="E2:E9" si="0">AVERAGE(B2:D2)</f>
         <v>0.50860000000000005</v>
       </c>
     </row>
@@ -17003,7 +17073,7 @@
         <v>0.59740000000000004</v>
       </c>
       <c r="E3" s="1">
-        <f>AVERAGE(B3:D3)</f>
+        <f t="shared" si="0"/>
         <v>0.54804999999999993</v>
       </c>
     </row>
@@ -17021,7 +17091,7 @@
         <v>0.66904999999999992</v>
       </c>
       <c r="E4" s="1">
-        <f>AVERAGE(B4:D4)</f>
+        <f t="shared" si="0"/>
         <v>0.58371666666666666</v>
       </c>
     </row>
@@ -17039,7 +17109,7 @@
         <v>0.64555000000000007</v>
       </c>
       <c r="E5" s="1">
-        <f>AVERAGE(B5:D5)</f>
+        <f t="shared" si="0"/>
         <v>0.63591666666666669</v>
       </c>
     </row>
@@ -17057,7 +17127,7 @@
         <v>0.65295000000000003</v>
       </c>
       <c r="E6" s="1">
-        <f>AVERAGE(B6:D6)</f>
+        <f t="shared" si="0"/>
         <v>0.58923333333333339</v>
       </c>
     </row>
@@ -17075,7 +17145,7 @@
         <v>0.16670000000000001</v>
       </c>
       <c r="E7" s="1">
-        <f>AVERAGE(B7:D7)</f>
+        <f t="shared" si="0"/>
         <v>0.24785000000000004</v>
       </c>
     </row>
@@ -17093,7 +17163,7 @@
         <v>0.16670000000000001</v>
       </c>
       <c r="E8" s="1">
-        <f>AVERAGE(B8:D8)</f>
+        <f t="shared" si="0"/>
         <v>0.24661666666666671</v>
       </c>
     </row>
@@ -17111,7 +17181,7 @@
         <v>0.60335000000000005</v>
       </c>
       <c r="E9" s="1">
-        <f>AVERAGE(B9:D9)</f>
+        <f t="shared" si="0"/>
         <v>0.55646666666666678</v>
       </c>
     </row>
